--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88FE886-5FF9-4887-8B38-75A25BEC4920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69E1B82-EE1E-467B-80CC-85049539BDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{A4FF1C07-D5C6-4774-B994-C4F571B3561A}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{B342B531-4AED-4D36-A5C6-9CFC4C701030}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5996B9-83D6-441B-BC29-4DC406EE0240}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9F72BD-0CB5-468F-B3B5-28DDA0E3B489}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69E1B82-EE1E-467B-80CC-85049539BDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDA7759-C7DE-45E4-940D-D32AD1E86B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{B342B531-4AED-4D36-A5C6-9CFC4C701030}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{6FD12924-0487-4C17-A811-EDF06325CA32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9F72BD-0CB5-468F-B3B5-28DDA0E3B489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D938CE2-FA77-49F6-AEB6-29EAEEEDD337}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>88.856760447950705</v>
+        <v>78.16445413345933</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDA7759-C7DE-45E4-940D-D32AD1E86B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71E0859-9670-429B-A7DB-2EF8A7A20D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{6FD12924-0487-4C17-A811-EDF06325CA32}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{61213522-3D74-4D1F-9E45-70A907C95CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D938CE2-FA77-49F6-AEB6-29EAEEEDD337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9B8FDB-32EC-4E2F-8810-995970023C34}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>78.16445413345933</v>
+        <v>77.110616148552836</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71E0859-9670-429B-A7DB-2EF8A7A20D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB221BD1-A060-48D9-AC41-BC8ED6D98B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{61213522-3D74-4D1F-9E45-70A907C95CCC}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{38244909-9F36-4772-9E9F-E83479B17548}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9B8FDB-32EC-4E2F-8810-995970023C34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0933749E-DEA9-4C88-A696-60D7CCDAFA80}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
